--- a/Male vot.xlsx
+++ b/Male vot.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Atharv</t>
   </si>
@@ -31,9 +31,21 @@
     <t xml:space="preserve">Rushikesh</t>
   </si>
   <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F3</t>
+  </si>
+  <si>
     <t xml:space="preserve">pavan</t>
   </si>
   <si>
+    <t xml:space="preserve">1.611645–1.599567</t>
+  </si>
+  <si>
     <t xml:space="preserve">purna</t>
   </si>
   <si>
@@ -116,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">dinka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dukkar</t>
   </si>
   <si>
     <t xml:space="preserve">dhag</t>
@@ -148,6 +163,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -168,6 +184,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,12 +229,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,517 +365,864 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="212" zoomScaleNormal="212" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="212" zoomScaleNormal="212" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.79"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>0.028897</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.018955</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.014</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.024619</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.006</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>0.037868</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.052327</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.031204</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <v>0.023936</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.017827</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.008164</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>0.056352</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.027409</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.016</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.018936</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.013093</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>0.117775</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.145661</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.029408</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>0.034808</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.070616</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.008097</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>0.111702</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.123729</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.013</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>0.03423</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.052145</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>0.038305</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.086065</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.109187</v>
       </c>
+      <c r="E7" s="0" t="n">
+        <v>0.041973</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.057127</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.052949</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>0.66596</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.046938</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.043741</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>0.001768</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.002966</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>0.040937</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.02982</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.048638</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <v>0.003625</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.007038</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.002887</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>0.02836</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.023341</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>0.065938</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>0.004843</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.008153</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.00521</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>0.106755</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.052595</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.049529</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <v>0.073933</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.034594</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.013273</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="0" t="n">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>0.093304</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.054364</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.051302</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <v>0.069459</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.035328</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.017564</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>0.086082</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.083377</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.059626</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>0.075738</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.035511</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.018741</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>0.074696</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.023953</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>0.081416</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.020476</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.004819</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>0.063182</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.020305</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.014</v>
       </c>
+      <c r="E15" s="0" t="n">
+        <v>0.054093</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.012076</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.008049</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="0" t="n">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>0.042655</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>0.02018</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.011</v>
       </c>
+      <c r="E16" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.019654</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.006765</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>0.137115</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.123944</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>0.60605</v>
       </c>
+      <c r="E17" s="0" t="n">
+        <v>0.106431</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.035599</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.033641</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="0" t="n">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>0.115499</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>0.115444</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>0.046248</v>
       </c>
+      <c r="E18" s="0" t="n">
+        <v>0.099628</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.012508</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.011042</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="0" t="n">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>0.095637</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>0.084905</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0.142042</v>
       </c>
+      <c r="E19" s="0" t="n">
+        <v>0.081318</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.046846</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.01801</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="0" t="n">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>0.132432</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>0.113484</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>0.063105</v>
       </c>
+      <c r="E20" s="0" t="n">
+        <v>0.119317</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.059218</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.033512</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="0" t="n">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>0.064131</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>0.103129</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>0.08028</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <v>0.122148</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.05914</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.005738</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="0" t="n">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>0.046509</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>0.100258</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>0.056834</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <v>0.103477</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.036601</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.069822</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="0" t="n">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>0.062044</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>0.111645</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>0.068172</v>
       </c>
+      <c r="E23" s="0" t="n">
+        <v>0.118696</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.03907</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.02609</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="0" t="n">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <v>0.150704</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>0.120519</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>0.062502</v>
       </c>
+      <c r="E24" s="0" t="n">
+        <v>0.101999</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.073223</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.070808</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="0" t="n">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="n">
         <v>0.035608</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>0.054502</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>0.072543</v>
       </c>
+      <c r="E25" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.066244</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.043264</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="0" t="n">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="n">
         <v>0.121133</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>0.038822</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>0.142682</v>
       </c>
+      <c r="E26" s="0" t="n">
+        <v>0.116154</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.07464</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.037758</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="0" t="n">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="n">
         <v>0.042417</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>0.140765</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>0.063651</v>
       </c>
+      <c r="E27" s="0" t="n">
+        <v>0.023764</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.079021</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.074064</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="0" t="n">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="n">
         <v>0.053126</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>0.088964</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>0.043901</v>
       </c>
+      <c r="E28" s="0" t="n">
+        <v>0.025292</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.089611</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.061263</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="0" t="n">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1" t="n">
         <v>0.03581</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>0.097202</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>0.080934</v>
       </c>
+      <c r="E29" s="0" t="n">
+        <v>0.007735</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.060864</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.004122</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="0" t="n">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="n">
         <v>0.077741</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>0.110481</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>0.115908</v>
       </c>
+      <c r="E30" s="0" t="n">
+        <v>0.117524</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.091463</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.066902</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="0" t="n">
+      <c r="A31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="n">
         <v>0.118209</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>0.067311</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>0.040768</v>
       </c>
+      <c r="E31" s="0" t="n">
+        <v>0.15849</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.067565</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.052183</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="0" t="n">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="n">
         <v>0.095943</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>0.021375</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>0.068383</v>
       </c>
+      <c r="E32" s="0" t="n">
+        <v>0.090538</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.076795</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.045855</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="0" t="n">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="n">
         <v>0.087557</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>0.152834</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>0.07728</v>
       </c>
+      <c r="E33" s="0" t="n">
+        <v>0.131988</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.105504</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.096592</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="0" t="n">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="n">
         <v>0.115735</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>0.10953</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>0.047227</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.123503</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.080858</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.00349</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="n">
         <v>0.100537</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>0.077089</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>0.071085</v>
       </c>
+      <c r="E35" s="0" t="n">
+        <v>0.132549</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.074922</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.141666</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="0" t="n">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="n">
         <v>0.024883</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>0.101778</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>0.063479</v>
       </c>
+      <c r="E36" s="0" t="n">
+        <v>0.178306</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0.064729</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.007935</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.07425</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.08137</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.139425</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.114306</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0.083211</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
